--- a/biology/Médecine/Maladie_de_Gorham-Stout/Maladie_de_Gorham-Stout.xlsx
+++ b/biology/Médecine/Maladie_de_Gorham-Stout/Maladie_de_Gorham-Stout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie de Gorham-Stout  est une ostéolyse spontanée et massive à l'origine d'une résorption progressive de l'os. C'est une maladie rare d'étiologie inconnue qui se manifeste le plus souvent chez l'enfant ou le jeune adulte[1]. Elle se caractérise du point de vue histopathologique par une prolifération des canaux vasculaires à paroi mince dans l'os[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de Gorham-Stout  est une ostéolyse spontanée et massive à l'origine d'une résorption progressive de l'os. C'est une maladie rare d'étiologie inconnue qui se manifeste le plus souvent chez l'enfant ou le jeune adulte. Elle se caractérise du point de vue histopathologique par une prolifération des canaux vasculaires à paroi mince dans l'os.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Histoire et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aussi connue comme « syndrome de Breschet-Gorham », « ostéolyse de Gorham », « syndrome de Gorham », d'après Gilbert Breschet, Lemuel Whittington Gorham et Arthur Purdy Stout. 
-La première publication de cette maladie a été par JBS Jackson au The Boston Medical and Surgical Journal, qui en 1838 décrit pour la première fois la présence de cette affection dans l'humérus d'un garçon de 13 ans[3],[4].
-Depuis, plusieurs cas cliniques ont été décrits[5].
+La première publication de cette maladie a été par JBS Jackson au The Boston Medical and Surgical Journal, qui en 1838 décrit pour la première fois la présence de cette affection dans l'humérus d'un garçon de 13 ans,.
+Depuis, plusieurs cas cliniques ont été décrits.
 </t>
         </is>
       </c>
